--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_22_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_22_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99148.89754079387</v>
+        <v>18096179.01859909</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99148.89754079387</v>
+        <v>18096179.01859909</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>294544.1969189068</v>
+        <v>35585395.69944054</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>294544.1969189068</v>
+        <v>35585395.69944054</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1602691068.138579</v>
+        <v>17610231.21717107</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19549.60935119417</v>
+        <v>453149.8934253278</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>38165.11494967208</v>
+        <v>797937.855814165</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>56949.63273546751</v>
+        <v>1142725.818203001</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>75673.0056294238</v>
+        <v>1486847.093146996</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>94396.37852338009</v>
+        <v>1830968.368090992</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>113119.7514173364</v>
+        <v>2175089.643034984</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>131843.1243112927</v>
+        <v>2519210.91797898</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>150566.4972052489</v>
+        <v>2863332.192922976</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>169289.8700992051</v>
+        <v>3207453.467866992</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>188013.2429931608</v>
+        <v>3551574.742811047</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>206733.13731563</v>
+        <v>3895486.48741532</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>225456.6429136766</v>
+        <v>4239607.762359374</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>244180.0158076327</v>
+        <v>4583729.037303515</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>264121.0675274958</v>
+        <v>4790811.345076587</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>284058.7733799638</v>
+        <v>4997684.122509858</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>51.00000000000881</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>51.0000000000177</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
